--- a/biology/Zoologie/Campagnol_des_rochers/Campagnol_des_rochers.xlsx
+++ b/biology/Zoologie/Campagnol_des_rochers/Campagnol_des_rochers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Microtus chrotorrhinus
 Le campagnol des rochers (Microtus chrotorrhinus) est une espèce de rongeurs de la famille des Cricétidés. C'est un campagnol d'Amérique du Nord.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encore appelé Yellow-nosed Vole, il pèse 30 à 48 grammes, mesure  140 à 185 mm et ne présente pas de dimorphisme sexuel[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encore appelé Yellow-nosed Vole, il pèse 30 à 48 grammes, mesure  140 à 185 mm et ne présente pas de dimorphisme sexuel.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce mammifère vit dans la région des Appalaches, en Caroline du Nord et en Gaspésie. Au Canada, cette espèce est présente dans le Labrador, au Québec, en Ontario et en Nouvelle-Écosse.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche dans des sols rocailleux et humides, ainsi que dans des boisés frais, les affleurements rocheux ou encore près d'un point d'eau.
 </t>
